--- a/pred_ohlcv/54_21/2019-10-31 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 FZZ ohlcv.xlsx
@@ -1380,7 +1380,7 @@
         <v>-384634.7739268217</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-478807.9585268217</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-903914.4831268216</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2551003.658139303</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2548990.546039303</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2547662.546039303</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2983177.5575533</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2983187.5575533</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2968559.2111533</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2666868.440153299</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2666888.440153299</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1821751.318553299</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1822748.347253299</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1816536.750653299</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1809592.108853299</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1809581.108853299</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2126408.0521533</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2116464.818153299</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2916464.818153299</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3377649.0899533</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-3377619.0899533</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-3376419.0899533</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-3361944.5391533</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-3952349.272053299</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2671845.708753299</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2673365.708753299</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2295446.1253533</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2295446.1253533</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-384385.2515497418</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-317410.2515497418</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-306954.9454497418</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-306943.9454497418</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-651333.0820497419</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-718610.4176070133</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-1671779.653407013</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-31 FZZ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 FZZ ohlcv.xlsx
@@ -3954,7 +3954,7 @@
         <v>-2637312.639939304</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2551003.658139303</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2550993.658139303</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2548990.546039303</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2548972.546039303</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2547662.546039303</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2547672.546039303</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-2540058.546039303</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-2540058.546039303</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-2540168.546039303</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2540150.546039303</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-2983177.5575533</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-2983187.5575533</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2968559.2111533</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-2968559.2111533</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2668384.9882533</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2661779.5513533</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2666779.5513533</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-2666878.440153299</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2666868.440153299</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-2666888.440153299</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-2666888.440153299</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2718093.440153299</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1821751.318553299</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-1822760.347253299</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-1822760.347253299</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-1822748.347253299</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1674387.706353299</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-1674397.706353299</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1674387.706353299</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1816536.750653299</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1809592.108853299</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-1809581.108853299</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-2126408.0521533</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-2117664.818153299</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-2116464.818153299</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-2916464.818153299</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3377649.0899533</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-3377619.0899533</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-3376419.0899533</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-3361944.5391533</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-3952359.272053299</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-3952349.272053299</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3935924.914053299</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-3609203.652353299</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1842286.508553299</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-3029064.902753299</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-3029064.902753299</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-3029035.276653299</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-2671845.708753299</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2673365.708753299</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-2295446.1253533</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-2295446.1253533</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>70958.41365025821</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-170963.7505497418</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-169432.7505497418</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-169421.7505497418</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-229076.8980497418</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-384385.2515497418</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-317410.2515497418</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
